--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C721F795-10DE-4622-982F-91BF3ADB08C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB574070-ED08-4E30-926D-B8B59A7E6969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Quantité</t>
   </si>
@@ -49,9 +49,6 @@
     <t>nordic wifi dev kit</t>
   </si>
   <si>
-    <t xml:space="preserve">579-MCP2515-I/SO </t>
-  </si>
-  <si>
     <t>949-NRF7002-QFAA-R</t>
   </si>
   <si>
@@ -65,6 +62,21 @@
   </si>
   <si>
     <t>nordic SoC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-MCP2515-I/ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">640-MEM20510019500A </t>
+  </si>
+  <si>
+    <t>SD card slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520-160-18-33Q-DSTR3 </t>
+  </si>
+  <si>
+    <t>mcp2515 quartz</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
   <dimension ref="D8:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2">
         <v>5.5</v>
@@ -486,20 +498,20 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
@@ -507,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2">
         <v>8.76</v>
@@ -524,25 +536,45 @@
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.9</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB574070-ED08-4E30-926D-B8B59A7E6969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE68AB-1AF3-4404-9BA3-5E63BA5B1F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Quantité</t>
   </si>
@@ -55,9 +55,6 @@
     <t>canbus controller with SPI interface</t>
   </si>
   <si>
-    <t>949-NRF5340-CLAA-R7</t>
-  </si>
-  <si>
     <t>nordic wifi chip</t>
   </si>
   <si>
@@ -73,10 +70,19 @@
     <t>SD card slot</t>
   </si>
   <si>
-    <t xml:space="preserve">520-160-18-33Q-DSTR3 </t>
-  </si>
-  <si>
-    <t>mcp2515 quartz</t>
+    <t xml:space="preserve">279-RN73CA-49.9K </t>
+  </si>
+  <si>
+    <t>Résistance de terminaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">949-NRF5340-QKAA-R </t>
+  </si>
+  <si>
+    <t>quartz pour nrf5340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-CX2016DB32DFLJCC </t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D8:I18"/>
+  <dimension ref="D8:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2">
         <v>5.5</v>
@@ -489,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:I18" si="0">G11*D11</f>
+        <f t="shared" ref="I11:I17" si="0">G11*D11</f>
         <v>5.5</v>
       </c>
     </row>
@@ -498,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -519,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
         <v>8.76</v>
@@ -531,8 +537,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>8.76</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
@@ -540,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G14" s="2">
         <v>1.1200000000000001</v>
@@ -561,29 +566,41 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G15" s="2">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.8</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -591,15 +608,6 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE68AB-1AF3-4404-9BA3-5E63BA5B1F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2795A-545E-47BB-9AE3-65DCC73FE91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Quantité</t>
   </si>
@@ -79,10 +79,22 @@
     <t xml:space="preserve">949-NRF5340-QKAA-R </t>
   </si>
   <si>
-    <t>quartz pour nrf5340</t>
-  </si>
-  <si>
     <t xml:space="preserve">581-CX2016DB32DFLJCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">865-XP151A12A2MR-G </t>
+  </si>
+  <si>
+    <t>N-MOS</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN65HVD232D </t>
+  </si>
+  <si>
+    <t>canbus driver</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D8:I17"/>
+  <dimension ref="D8:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:I17" si="0">G11*D11</f>
+        <f t="shared" ref="I11:I13" si="0">G11*D11</f>
         <v>5.5</v>
       </c>
     </row>
@@ -521,23 +533,24 @@
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8.76</v>
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>2.97</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2">
-        <v>9.43</v>
+        <f t="shared" si="0"/>
+        <v>2.97</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
@@ -545,20 +558,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1200000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
@@ -566,20 +578,20 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2">
-        <v>0.94</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
+        <f>G15*D15</f>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
@@ -587,29 +599,62 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <f>G16*D16</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <f>G17*D17</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <f>G18*D18</f>
+        <v>2.68</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2795A-545E-47BB-9AE3-65DCC73FE91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E220AA-8391-4AAD-BBB3-727DE587D5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Quantité</t>
   </si>
@@ -49,18 +49,9 @@
     <t>nordic wifi dev kit</t>
   </si>
   <si>
-    <t>949-NRF7002-QFAA-R</t>
-  </si>
-  <si>
     <t>canbus controller with SPI interface</t>
   </si>
   <si>
-    <t>nordic wifi chip</t>
-  </si>
-  <si>
-    <t>nordic SoC</t>
-  </si>
-  <si>
     <t xml:space="preserve">579-MCP2515-I/ML </t>
   </si>
   <si>
@@ -70,31 +61,22 @@
     <t>SD card slot</t>
   </si>
   <si>
-    <t xml:space="preserve">279-RN73CA-49.9K </t>
-  </si>
-  <si>
-    <t>Résistance de terminaison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">949-NRF5340-QKAA-R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">581-CX2016DB32DFLJCC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">865-XP151A12A2MR-G </t>
-  </si>
-  <si>
-    <t>N-MOS</t>
-  </si>
-  <si>
-    <t>Quartz</t>
-  </si>
-  <si>
     <t xml:space="preserve">595-SN65HVD232D </t>
   </si>
   <si>
     <t>canbus driver</t>
+  </si>
+  <si>
+    <t>296-21929-1-ND</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>level shiffter</t>
   </si>
 </sst>
 </file>
@@ -433,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D8:I18"/>
+  <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +431,10 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -469,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>1</v>
       </c>
@@ -490,171 +475,235 @@
         <v>57.44</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G11" s="2">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:I13" si="0">G11*D11</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+        <f>G11*D11</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.5</v>
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>2.97</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13">
+        <f>G12*D12</f>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13">
-        <v>2.97</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.1200000000000001</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="2">
+        <f>G13*D13</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <f t="shared" ref="I14:I36" si="0">G14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>8.76</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G24">
+        <v>1.03</v>
+      </c>
+      <c r="H24" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2">
-        <f>G15*D15</f>
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2">
-        <f>G16*D16</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2">
-        <f>G17*D17</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2">
-        <f>G18*D18</f>
-        <v>2.68</v>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E220AA-8391-4AAD-BBB3-727DE587D5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E430E7-F55B-4850-92DC-1A4F7644397C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Quantité</t>
   </si>
@@ -43,27 +43,15 @@
     <t>Sylvestre van Kappel</t>
   </si>
   <si>
-    <t xml:space="preserve">949-NRF7002-DK </t>
-  </si>
-  <si>
     <t>nordic wifi dev kit</t>
   </si>
   <si>
     <t>canbus controller with SPI interface</t>
   </si>
   <si>
-    <t xml:space="preserve">579-MCP2515-I/ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">640-MEM20510019500A </t>
-  </si>
-  <si>
     <t>SD card slot</t>
   </si>
   <si>
-    <t xml:space="preserve">595-SN65HVD232D </t>
-  </si>
-  <si>
     <t>canbus driver</t>
   </si>
   <si>
@@ -77,6 +65,42 @@
   </si>
   <si>
     <t>level shiffter</t>
+  </si>
+  <si>
+    <t>3.3v regulator</t>
+  </si>
+  <si>
+    <t>module gps</t>
+  </si>
+  <si>
+    <t>RF Nmos+Pmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer </t>
+  </si>
+  <si>
+    <t>377-MAX-M10S-00B</t>
+  </si>
+  <si>
+    <t>781-SI1016X-T1-GE3</t>
+  </si>
+  <si>
+    <t>595-SN74LVC2G07DCKR</t>
+  </si>
+  <si>
+    <t>640-MEM20510019500A</t>
+  </si>
+  <si>
+    <t>595-SN65HVD232D</t>
+  </si>
+  <si>
+    <t>579-MCP2515-I/ML</t>
+  </si>
+  <si>
+    <t>949-NRF7002-DK</t>
+  </si>
+  <si>
+    <t>495-TSR-1-2433</t>
   </si>
 </sst>
 </file>
@@ -418,7 +442,7 @@
   <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +457,7 @@
   <sheetData>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -459,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>57.44</v>
@@ -480,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2">
         <v>2.5</v>
@@ -501,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>2.97</v>
@@ -522,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2">
         <v>1.1200000000000001</v>
@@ -539,42 +563,96 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>5.72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I14" s="2">
         <f t="shared" ref="I14:I36" si="0">G14*D14</f>
-        <v>0</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>20.67</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -612,16 +690,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>1.03</v>

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E430E7-F55B-4850-92DC-1A4F7644397C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121530C-668B-4000-87EA-C463AC8E03F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Quantité</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>495-TSR-1-2433</t>
+  </si>
+  <si>
+    <t>1568-1504-ND</t>
+  </si>
+  <si>
+    <t>USB-UART converter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-CX3225SB16D0FLJ </t>
+  </si>
+  <si>
+    <t>quartz</t>
   </si>
 </sst>
 </file>
@@ -152,13 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +457,7 @@
   <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,22 +662,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20" s="2">
@@ -713,9 +728,24 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>14.85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121530C-668B-4000-87EA-C463AC8E03F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F17FE-5B20-4552-BB3D-CD4B75A36943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Quantité</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">871-B82793C104N201 </t>
+  </si>
+  <si>
+    <t>common mode choke</t>
+  </si>
+  <si>
+    <t>497-13262-1-ND</t>
+  </si>
+  <si>
+    <t>diode de protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495-TCK-141 </t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>296-23759-6-ND</t>
   </si>
 </sst>
 </file>
@@ -457,7 +478,7 @@
   <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +558,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -553,7 +574,7 @@
       </c>
       <c r="I12" s="2">
         <f>G12*D12</f>
-        <v>2.97</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,34 +692,74 @@
       <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -711,53 +772,80 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24">
-        <v>1.03</v>
-      </c>
-      <c r="H24" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
+        <f>G24*D23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>1.03</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <f>G25*D24</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>14.85</v>
       </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>14.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G26*D25</f>
+        <v>29.7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>0.41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G27*D26</f>
+        <v>1.23</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">

--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F17FE-5B20-4552-BB3D-CD4B75A36943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C870471-C7E9-433D-A916-26CC9371DE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
